--- a/compare_linear.xlsx
+++ b/compare_linear.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="480" windowWidth="27340" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="27320" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,6 @@
     <col min="7" max="7" width="31.6640625" style="6" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="8" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125"/>
     <col min="11" max="11" width="9.1640625" style="11" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" style="1" customWidth="1"/>
     <col min="13" max="14" width="10.83203125" style="1" customWidth="1"/>

--- a/compare_linear.xlsx
+++ b/compare_linear.xlsx
@@ -311,7 +311,7 @@
     <t>human p.value</t>
   </si>
   <si>
-    <t>computer(6th)</t>
+    <t>computer</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
